--- a/Kelompok Client/Hasil Mentah Kuesioner Customer.xlsx
+++ b/Kelompok Client/Hasil Mentah Kuesioner Customer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
   <si>
     <t>Timestamp</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>Tidak ada sendok/sedotan</t>
+  </si>
+  <si>
+    <t>2000 rupiah</t>
+  </si>
+  <si>
+    <t>Tidak tahu menu yang disediakan, Tidak tahu harga menu, Respon lambat dari admin WA</t>
+  </si>
+  <si>
+    <t>Satu kali</t>
+  </si>
+  <si>
+    <t>4000 rupiah</t>
+  </si>
+  <si>
+    <t>Tidak tahu menu yang disediakan, Status pengiriman yang tidak jelas, Tidak tahu wujud asli makanan, Tidak tahu pendapat orang lain, Tidak tahu apakah diberikan sendok atau tidak</t>
+  </si>
+  <si>
+    <t>Tidak tahu menu yang disediakan, Tidak tahu harga menu, Status pengiriman yang tidak jelas, Metode pembayaran kurang relevan</t>
+  </si>
+  <si>
+    <t>internet banking</t>
   </si>
 </sst>
 </file>
@@ -592,6 +613,324 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43930.67427320602</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43930.679039317125</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>43930.771064560184</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>43930.813734745374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43930.83632702546</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43931.40406596065</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
